--- a/src/main/resources/Main.xlsx
+++ b/src/main/resources/Main.xlsx
@@ -21,19 +21,41 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author> </author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">here you may enter imported Java packages. More on Environment table in next tutorials
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">Datatype PaygridData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minCompensation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxCompensation</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t xml:space="preserve">Environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.test.olingodemo.vo</t>
   </si>
   <si>
     <t xml:space="preserve">SmartRules PaygridData MphasisPayGrid(String country, String compFrequency, String currencyCd, Integer level, String businessUnit, String offerJobCd)</t>
@@ -85,10 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="DD/MM/YYYY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -109,6 +132,20 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -133,23 +170,35 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFA6A6A6"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFE"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA6A6A6"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
     <fill>
@@ -165,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -174,9 +223,16 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+      <left/>
+      <right/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -250,7 +306,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,31 +315,35 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +359,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFE"/>
+      <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
@@ -312,11 +372,11 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFFFFFFE"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
@@ -382,8 +442,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="14.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="9.13"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -407,10 +467,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C1048576"/>
+  <dimension ref="B2:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -418,37 +478,35 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3"/>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -457,6 +515,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -465,10 +524,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B3:I5"/>
+  <dimension ref="B2:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="topLeft" activeCell="H22" activeCellId="0" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -476,70 +535,74 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.67"/>
   </cols>
   <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="8" t="n">
+      <c r="H5" s="9" t="n">
         <v>400000</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="9" t="n">
         <v>500000</v>
       </c>
     </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:I3"/>
